--- a/SPPSApi/Doc/Template/FS1205.xlsx
+++ b/SPPSApi/Doc/Template/FS1205.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="OUTPUT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -255,6 +255,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -613,7 +614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="ED1" sqref="ED1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>

--- a/SPPSApi/Doc/Template/FS1205.xlsx
+++ b/SPPSApi/Doc/Template/FS1205.xlsx
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +233,10 @@
   </si>
   <si>
     <t>周总量(平准)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,397 +638,397 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="EC1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
